--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Edn1-Ednra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Edn1-Ednra.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.957023333333334</v>
+        <v>6.523120333333334</v>
       </c>
       <c r="H2">
-        <v>29.87107</v>
+        <v>19.569361</v>
       </c>
       <c r="I2">
-        <v>0.7839926662698464</v>
+        <v>0.7039464591847725</v>
       </c>
       <c r="J2">
-        <v>0.7839926662698464</v>
+        <v>0.7039464591847725</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.508394</v>
+        <v>2.067959333333333</v>
       </c>
       <c r="N2">
-        <v>4.525182</v>
+        <v>6.203878</v>
       </c>
       <c r="O2">
-        <v>0.0276475339394655</v>
+        <v>0.03751906553627715</v>
       </c>
       <c r="P2">
-        <v>0.02764753393946551</v>
+        <v>0.03751906553627715</v>
       </c>
       <c r="Q2">
-        <v>15.01911425386</v>
+        <v>13.48954757577311</v>
       </c>
       <c r="R2">
-        <v>135.17202828474</v>
+        <v>121.405928181958</v>
       </c>
       <c r="S2">
-        <v>0.02167546384898763</v>
+        <v>0.02641141333618373</v>
       </c>
       <c r="T2">
-        <v>0.02167546384898763</v>
+        <v>0.02641141333618373</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.957023333333334</v>
+        <v>6.523120333333334</v>
       </c>
       <c r="H3">
-        <v>29.87107</v>
+        <v>19.569361</v>
       </c>
       <c r="I3">
-        <v>0.7839926662698464</v>
+        <v>0.7039464591847725</v>
       </c>
       <c r="J3">
-        <v>0.7839926662698464</v>
+        <v>0.7039464591847725</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>26.884056</v>
       </c>
       <c r="O3">
-        <v>0.1642536920482958</v>
+        <v>0.1625861532004571</v>
       </c>
       <c r="P3">
-        <v>0.1642536920482958</v>
+        <v>0.1625861532004571</v>
       </c>
       <c r="Q3">
-        <v>89.22839096221334</v>
+        <v>58.45597744535733</v>
       </c>
       <c r="R3">
-        <v>803.05551865992</v>
+        <v>526.103797008216</v>
       </c>
       <c r="S3">
-        <v>0.1287736899736097</v>
+        <v>0.1144519468579347</v>
       </c>
       <c r="T3">
-        <v>0.1287736899736097</v>
+        <v>0.1144519468579347</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.957023333333334</v>
+        <v>6.523120333333334</v>
       </c>
       <c r="H4">
-        <v>29.87107</v>
+        <v>19.569361</v>
       </c>
       <c r="I4">
-        <v>0.7839926662698464</v>
+        <v>0.7039464591847725</v>
       </c>
       <c r="J4">
-        <v>0.7839926662698464</v>
+        <v>0.7039464591847725</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>132.264745</v>
       </c>
       <c r="O4">
-        <v>0.8080987740122387</v>
+        <v>0.7998947812632657</v>
       </c>
       <c r="P4">
-        <v>0.8080987740122387</v>
+        <v>0.7998947812632657</v>
       </c>
       <c r="Q4">
-        <v>438.9877173807944</v>
+        <v>287.5929491642161</v>
       </c>
       <c r="R4">
-        <v>3950.88945642715</v>
+        <v>2588.336542477945</v>
       </c>
       <c r="S4">
-        <v>0.6335435124472492</v>
+        <v>0.563083098990654</v>
       </c>
       <c r="T4">
-        <v>0.6335435124472492</v>
+        <v>0.563083098990654</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>7.618444</v>
       </c>
       <c r="I5">
-        <v>0.1999528046497</v>
+        <v>0.2740496574363094</v>
       </c>
       <c r="J5">
-        <v>0.1999528046497</v>
+        <v>0.2740496574363095</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.508394</v>
+        <v>2.067959333333333</v>
       </c>
       <c r="N5">
-        <v>4.525182</v>
+        <v>6.203878</v>
       </c>
       <c r="O5">
-        <v>0.0276475339394655</v>
+        <v>0.03751906553627715</v>
       </c>
       <c r="P5">
-        <v>0.02764753393946551</v>
+        <v>0.03751906553627715</v>
       </c>
       <c r="Q5">
-        <v>3.830538406312</v>
+        <v>5.251544125092444</v>
       </c>
       <c r="R5">
-        <v>34.474845656808</v>
+        <v>47.263897125832</v>
       </c>
       <c r="S5">
-        <v>0.005528201952843896</v>
+        <v>0.0102820870575472</v>
       </c>
       <c r="T5">
-        <v>0.005528201952843897</v>
+        <v>0.0102820870575472</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>7.618444</v>
       </c>
       <c r="I6">
-        <v>0.1999528046497</v>
+        <v>0.2740496574363094</v>
       </c>
       <c r="J6">
-        <v>0.1999528046497</v>
+        <v>0.2740496574363095</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>26.884056</v>
       </c>
       <c r="O6">
-        <v>0.1642536920482958</v>
+        <v>0.1625861532004571</v>
       </c>
       <c r="P6">
-        <v>0.1642536920482958</v>
+        <v>0.1625861532004571</v>
       </c>
       <c r="Q6">
         <v>22.75718612542933</v>
@@ -818,10 +818,10 @@
         <v>204.814675128864</v>
       </c>
       <c r="S6">
-        <v>0.03284298639912486</v>
+        <v>0.04455667958847258</v>
       </c>
       <c r="T6">
-        <v>0.03284298639912487</v>
+        <v>0.04455667958847259</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>7.618444</v>
       </c>
       <c r="I7">
-        <v>0.1999528046497</v>
+        <v>0.2740496574363094</v>
       </c>
       <c r="J7">
-        <v>0.1999528046497</v>
+        <v>0.2740496574363095</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>132.264745</v>
       </c>
       <c r="O7">
-        <v>0.8080987740122387</v>
+        <v>0.7998947812632657</v>
       </c>
       <c r="P7">
-        <v>0.8080987740122387</v>
+        <v>0.7998947812632657</v>
       </c>
       <c r="Q7">
         <v>111.9612836618644</v>
@@ -880,10 +880,10 @@
         <v>1007.65155295678</v>
       </c>
       <c r="S7">
-        <v>0.1615816162977312</v>
+        <v>0.2192108907902896</v>
       </c>
       <c r="T7">
-        <v>0.1615816162977312</v>
+        <v>0.2192108907902897</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>0.611697</v>
       </c>
       <c r="I8">
-        <v>0.01605452908045364</v>
+        <v>0.02200388337891808</v>
       </c>
       <c r="J8">
-        <v>0.01605452908045364</v>
+        <v>0.02200388337891808</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.508394</v>
+        <v>2.067959333333333</v>
       </c>
       <c r="N8">
-        <v>4.525182</v>
+        <v>6.203878</v>
       </c>
       <c r="O8">
-        <v>0.0276475339394655</v>
+        <v>0.03751906553627715</v>
       </c>
       <c r="P8">
-        <v>0.02764753393946551</v>
+        <v>0.03751906553627715</v>
       </c>
       <c r="Q8">
-        <v>0.307560028206</v>
+        <v>0.4216548401073333</v>
       </c>
       <c r="R8">
-        <v>2.768040253854</v>
+        <v>3.794893560966</v>
       </c>
       <c r="S8">
-        <v>0.0004438681376339779</v>
+        <v>0.0008255651425462271</v>
       </c>
       <c r="T8">
-        <v>0.0004438681376339779</v>
+        <v>0.0008255651425462271</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.611697</v>
       </c>
       <c r="I9">
-        <v>0.01605452908045364</v>
+        <v>0.02200388337891808</v>
       </c>
       <c r="J9">
-        <v>0.01605452908045364</v>
+        <v>0.02200388337891808</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>26.884056</v>
       </c>
       <c r="O9">
-        <v>0.1642536920482958</v>
+        <v>0.1625861532004571</v>
       </c>
       <c r="P9">
-        <v>0.1642536920482958</v>
+        <v>0.1625861532004571</v>
       </c>
       <c r="Q9">
         <v>1.827210711448</v>
@@ -1004,10 +1004,10 @@
         <v>16.444896403032</v>
       </c>
       <c r="S9">
-        <v>0.002637015675561241</v>
+        <v>0.003577526754049767</v>
       </c>
       <c r="T9">
-        <v>0.002637015675561241</v>
+        <v>0.003577526754049766</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.611697</v>
       </c>
       <c r="I10">
-        <v>0.01605452908045364</v>
+        <v>0.02200388337891808</v>
       </c>
       <c r="J10">
-        <v>0.01605452908045364</v>
+        <v>0.02200388337891808</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>132.264745</v>
       </c>
       <c r="O10">
-        <v>0.8080987740122387</v>
+        <v>0.7998947812632657</v>
       </c>
       <c r="P10">
-        <v>0.8080987740122387</v>
+        <v>0.7998947812632657</v>
       </c>
       <c r="Q10">
         <v>8.989549746918334</v>
@@ -1066,10 +1066,10 @@
         <v>80.90594772226501</v>
       </c>
       <c r="S10">
-        <v>0.01297364526725842</v>
+        <v>0.01760079148232209</v>
       </c>
       <c r="T10">
-        <v>0.01297364526725842</v>
+        <v>0.01760079148232209</v>
       </c>
     </row>
   </sheetData>
